--- a/src/scraping/CommonFirstandLast.xlsx
+++ b/src/scraping/CommonFirstandLast.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\projects\corey\src\scraping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF26B3-764F-4E25-9715-6841B7FD634E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2E2509BB-9BB8-4405-AEB1-B42B959AAD62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
     <sheet name="LastName" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">First!$A$1:$A$200</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="4201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="4202">
   <si>
     <t>James</t>
   </si>
@@ -12629,12 +12626,15 @@
   </si>
   <si>
     <t>STRAIN</t>
+  </si>
+  <si>
+    <t>Jon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12726,7 +12726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -12778,7 +12778,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -12972,18 +12972,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A35EF8C-F8C8-4B09-A4D8-6A46E6EE7B62}">
-  <dimension ref="A1:B200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B200"/>
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14730,7 +14730,7 @@
         <v>187</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B200" si="3">CONCATENATE("(""",LOWER(A194),"""),")</f>
+        <f t="shared" ref="B194:B201" si="3">CONCATENATE("(""",LOWER(A194),"""),")</f>
         <v>("diana"),</v>
       </c>
     </row>
@@ -14788,18 +14788,28 @@
         <v>("marie"),</v>
       </c>
     </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>("jon"),</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A200"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FC15AB-3672-45FC-B7DC-41CCAFE7E706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
